--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\uipath.dev01\Documents\UiPath\002-SCR_Consignment_Invoice Billing_Performer\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\uipath.dev01\Documents\UiPath\Prototype-Generic_Batch\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BAC9DBC-D5AD-4002-A1A6-49DF9633ECCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7172DCE5-4343-45AF-8853-47EFD873B6F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="23280" windowHeight="12600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -155,9 +155,6 @@
     <t xml:space="preserve">The maximum number of consecutive system exceptions was reached. </t>
   </si>
   <si>
-    <t>002-SCR_Consignment_Invoice Billing_SAP</t>
-  </si>
-  <si>
     <t>SAP_Login</t>
   </si>
   <si>
@@ -513,6 +510,9 @@
   </si>
   <si>
     <t>SAP</t>
+  </si>
+  <si>
+    <t>SAP_IX2_Demo</t>
   </si>
 </sst>
 </file>
@@ -892,7 +892,7 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -939,10 +939,10 @@
     </row>
     <row r="2" spans="1:26" ht="14.25" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>22</v>
@@ -970,250 +970,250 @@
     </row>
     <row r="5" spans="1:26" ht="14.25" customHeight="1">
       <c r="A5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="14.25" customHeight="1">
       <c r="A6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="14.25" customHeight="1">
       <c r="A7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1">
       <c r="A8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B8" t="s">
-        <v>43</v>
+        <v>162</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1">
       <c r="A9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B9" t="s">
         <v>53</v>
-      </c>
-      <c r="B9" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="14.25" customHeight="1">
       <c r="A10" t="s">
+        <v>54</v>
+      </c>
+      <c r="B10" t="s">
         <v>55</v>
-      </c>
-      <c r="B10" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="14.25" customHeight="1">
       <c r="A11" t="s">
+        <v>56</v>
+      </c>
+      <c r="B11" t="s">
         <v>57</v>
-      </c>
-      <c r="B11" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="14.25" customHeight="1">
       <c r="A12" t="s">
+        <v>58</v>
+      </c>
+      <c r="B12" t="s">
         <v>59</v>
-      </c>
-      <c r="B12" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="14.25" customHeight="1">
       <c r="A13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B13" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="14.25" customHeight="1">
       <c r="A14" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B14" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="14.25" customHeight="1">
       <c r="A15" t="s">
+        <v>62</v>
+      </c>
+      <c r="B15" t="s">
         <v>63</v>
-      </c>
-      <c r="B15" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="14.25" customHeight="1">
       <c r="A16" t="s">
+        <v>144</v>
+      </c>
+      <c r="B16" t="s">
         <v>145</v>
-      </c>
-      <c r="B16" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="14.25" customHeight="1">
       <c r="A17" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B17" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="14.25" customHeight="1">
       <c r="A18" t="s">
+        <v>71</v>
+      </c>
+      <c r="B18" t="s">
         <v>72</v>
-      </c>
-      <c r="B18" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="14.25" customHeight="1">
       <c r="A19" t="s">
+        <v>73</v>
+      </c>
+      <c r="B19" t="s">
         <v>74</v>
-      </c>
-      <c r="B19" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="14.25" customHeight="1">
       <c r="A20" t="s">
+        <v>146</v>
+      </c>
+      <c r="B20" t="s">
         <v>147</v>
-      </c>
-      <c r="B20" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="14.25" customHeight="1">
       <c r="A21" t="s">
+        <v>142</v>
+      </c>
+      <c r="B21" t="s">
         <v>143</v>
-      </c>
-      <c r="B21" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="14.25" customHeight="1">
       <c r="A22" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B22" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="14.25" customHeight="1">
       <c r="A23" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B23" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="14.25" customHeight="1">
       <c r="A24" t="s">
+        <v>68</v>
+      </c>
+      <c r="B24" t="s">
         <v>69</v>
-      </c>
-      <c r="B24" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="14.25" customHeight="1">
       <c r="A25" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B25" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="14.25" customHeight="1">
       <c r="A26" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B26" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="14.25" customHeight="1">
       <c r="A27" t="s">
+        <v>87</v>
+      </c>
+      <c r="B27" s="5" t="s">
         <v>88</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="14.25" customHeight="1">
       <c r="A28" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B28" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="14.25" customHeight="1">
       <c r="A29" t="s">
+        <v>97</v>
+      </c>
+      <c r="B29" t="s">
         <v>98</v>
-      </c>
-      <c r="B29" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="14.25" customHeight="1">
       <c r="A30" t="s">
+        <v>150</v>
+      </c>
+      <c r="B30" t="s">
         <v>151</v>
-      </c>
-      <c r="B30" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="14.25" customHeight="1">
       <c r="A31" t="s">
+        <v>99</v>
+      </c>
+      <c r="B31" t="s">
         <v>100</v>
-      </c>
-      <c r="B31" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="14.25" customHeight="1">
       <c r="A32" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B32" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="14.25" customHeight="1">
       <c r="A33" t="s">
+        <v>118</v>
+      </c>
+      <c r="B33" t="s">
         <v>119</v>
-      </c>
-      <c r="B33" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="14.25" customHeight="1">
       <c r="A34" t="s">
+        <v>131</v>
+      </c>
+      <c r="B34" t="s">
         <v>132</v>
-      </c>
-      <c r="B34" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="14.25" customHeight="1">
       <c r="A35" t="s">
+        <v>154</v>
+      </c>
+      <c r="B35" t="s">
         <v>155</v>
-      </c>
-      <c r="B35" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="14.25" customHeight="1"/>
@@ -2192,7 +2192,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z988"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
@@ -2274,10 +2274,10 @@
     </row>
     <row r="6" spans="1:26" ht="14.25" customHeight="1">
       <c r="A6" t="s">
+        <v>114</v>
+      </c>
+      <c r="B6" t="s">
         <v>115</v>
-      </c>
-      <c r="B6" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="14.25" customHeight="1">
@@ -2383,77 +2383,77 @@
     </row>
     <row r="18" spans="1:3" ht="14.25" customHeight="1">
       <c r="A18" t="s">
+        <v>102</v>
+      </c>
+      <c r="B18" t="s">
         <v>103</v>
-      </c>
-      <c r="B18" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="14.25" customHeight="1">
       <c r="A19" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B19" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="14.25" customHeight="1">
       <c r="A20" t="s">
+        <v>112</v>
+      </c>
+      <c r="B20" t="s">
+        <v>120</v>
+      </c>
+      <c r="C20" t="s">
         <v>113</v>
-      </c>
-      <c r="B20" t="s">
-        <v>121</v>
-      </c>
-      <c r="C20" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="14.25" customHeight="1">
       <c r="A21" t="s">
+        <v>121</v>
+      </c>
+      <c r="B21" t="s">
         <v>122</v>
-      </c>
-      <c r="B21" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="14.25" customHeight="1">
       <c r="A22" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B22" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="14.25" customHeight="1">
       <c r="A23" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B23" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="14.25" customHeight="1">
       <c r="A24" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B24" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="14.25" customHeight="1">
       <c r="A25" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B25" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="14.25" customHeight="1">
       <c r="A26" t="s">
+        <v>148</v>
+      </c>
+      <c r="B26" t="s">
         <v>149</v>
-      </c>
-      <c r="B26" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="14.25" customHeight="1"/>
@@ -3478,141 +3478,141 @@
     </row>
     <row r="2" spans="1:26" ht="14.25" customHeight="1">
       <c r="A2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" t="s">
         <v>45</v>
-      </c>
-      <c r="B2" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="14.25" customHeight="1">
       <c r="A3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1">
       <c r="A4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="14.25" customHeight="1">
       <c r="A5" t="s">
+        <v>83</v>
+      </c>
+      <c r="B5" t="s">
         <v>84</v>
-      </c>
-      <c r="B5" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="14.25" customHeight="1">
       <c r="A6" t="s">
+        <v>89</v>
+      </c>
+      <c r="B6" t="s">
         <v>90</v>
-      </c>
-      <c r="B6" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="14.25" customHeight="1">
       <c r="A7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1">
       <c r="A8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1">
       <c r="A9" t="s">
+        <v>104</v>
+      </c>
+      <c r="B9" t="s">
         <v>105</v>
-      </c>
-      <c r="B9" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="14.25" customHeight="1">
       <c r="A10" t="s">
+        <v>106</v>
+      </c>
+      <c r="B10" t="s">
         <v>107</v>
-      </c>
-      <c r="B10" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="14.25" customHeight="1">
       <c r="A11" t="s">
+        <v>159</v>
+      </c>
+      <c r="B11" t="s">
         <v>160</v>
-      </c>
-      <c r="B11" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="14.25" customHeight="1">
       <c r="A12" t="s">
+        <v>133</v>
+      </c>
+      <c r="B12" t="s">
         <v>134</v>
-      </c>
-      <c r="B12" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="14.25" customHeight="1">
       <c r="A13" t="s">
+        <v>108</v>
+      </c>
+      <c r="B13" t="s">
         <v>109</v>
-      </c>
-      <c r="B13" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="14.25" customHeight="1">
       <c r="A14" t="s">
+        <v>135</v>
+      </c>
+      <c r="B14" t="s">
         <v>136</v>
-      </c>
-      <c r="B14" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="14.25" customHeight="1">
       <c r="A15" t="s">
+        <v>138</v>
+      </c>
+      <c r="B15" t="s">
         <v>139</v>
-      </c>
-      <c r="B15" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="14.25" customHeight="1">
       <c r="A16" t="s">
+        <v>140</v>
+      </c>
+      <c r="B16" t="s">
         <v>141</v>
-      </c>
-      <c r="B16" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="14.25" customHeight="1">
       <c r="A17" t="s">
+        <v>152</v>
+      </c>
+      <c r="B17" t="s">
         <v>153</v>
-      </c>
-      <c r="B17" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="14.25" customHeight="1">
       <c r="A18" t="s">
+        <v>156</v>
+      </c>
+      <c r="B18" t="s">
         <v>157</v>
       </c>
-      <c r="B18" t="s">
+      <c r="D18" t="s">
         <v>158</v>
-      </c>
-      <c r="D18" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="14.25" customHeight="1"/>
